--- a/Raw_Data/Cleaned_Raw_Session_13.xlsx
+++ b/Raw_Data/Cleaned_Raw_Session_13.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FV113"/>
+  <dimension ref="A1:FV121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -99265,6 +99265,6690 @@
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>221103_1043</t>
+        </is>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>subjects</t>
+        </is>
+      </c>
+      <c r="D114">
+        <v>29</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>7.8615841259535302E-2</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Z114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA114" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AB114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK114" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AL114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM114" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AN114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BS114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BV114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CB114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CF114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CH114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CI114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CL114" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="CO114" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CR114" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CS114" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CT114" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CW114" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="CX114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CY114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DA114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DB114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DC114" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DD114" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DE114" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DF114" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG114" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DH114" t="inlineStr">
+        <is>
+          <t>0.39794214181506199</t>
+        </is>
+      </c>
+      <c r="DI114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DJ114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DK114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DL114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DM114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DN114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DO114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DP114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DQ114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DR114" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DS114" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DT114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DU114" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DV114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DW114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DX114" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DY114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DZ114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EA114" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EB114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EC114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="ED114" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EE114" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EF114" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EG114" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EH114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EI114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EJ114" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EK114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EL114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EM114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EN114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EO114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EP114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EQ114" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="ER114" t="inlineStr">
+        <is>
+          <t>0.148345585515884</t>
+        </is>
+      </c>
+      <c r="ES114" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="ET114" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="EU114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EV114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EW114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EX114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EY114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EZ114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FA114" t="inlineStr">
+        <is>
+          <t>0.44236224444693101</t>
+        </is>
+      </c>
+      <c r="FB114" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="FD114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FE114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FF114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FG114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FH114" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="FI114" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="FJ114" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="FK114" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="FL114" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FM114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FN114" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="FO114" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="FP114" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="FQ114" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="FR114" t="inlineStr">
+        <is>
+          <t>99999</t>
+        </is>
+      </c>
+      <c r="FS114" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="FT114" t="inlineStr">
+        <is>
+          <t>99999</t>
+        </is>
+      </c>
+      <c r="FU114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FV114" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>221103_1043</t>
+        </is>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>subjects</t>
+        </is>
+      </c>
+      <c r="D115">
+        <v>29</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>0.28713644681830702</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK115" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AL115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM115" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AN115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BS115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BV115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CB115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CF115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CH115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CI115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CL115" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="CO115" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CR115" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CS115" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CT115" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CW115" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="CX115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CY115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DA115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DB115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DC115" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DD115" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DE115" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DF115" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG115" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DH115" t="inlineStr">
+        <is>
+          <t>0.71918640132955602</t>
+        </is>
+      </c>
+      <c r="DI115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DJ115" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DK115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DL115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DM115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DN115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DO115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DP115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DQ115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DR115" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DS115" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DT115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DU115" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DV115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DW115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DX115" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DY115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DZ115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EA115" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EB115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EC115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="ED115" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EE115" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EF115" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EG115" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EH115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EI115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EJ115" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EK115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EL115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EM115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EN115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EO115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EP115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EQ115" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="ER115" t="inlineStr">
+        <is>
+          <t>0.99355104798150795</t>
+        </is>
+      </c>
+      <c r="ES115" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="ET115" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="EU115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EV115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EW115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EX115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EY115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EZ115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FA115" t="inlineStr">
+        <is>
+          <t>0.125079500547182</t>
+        </is>
+      </c>
+      <c r="FB115" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="FD115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FE115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FF115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FG115" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="FH115" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="FI115" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="FJ115" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="FK115" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="FL115" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FM115" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="FN115" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="FO115" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="FP115" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="FQ115" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="FR115" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="FS115" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FT115" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="FU115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FV115" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>221103_1043</t>
+        </is>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>subjects</t>
+        </is>
+      </c>
+      <c r="D116">
+        <v>29</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>0.20492220400130501</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Z116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA116" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AB116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK116" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AL116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM116" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AN116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BS116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BV116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CB116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CF116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CH116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CI116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CL116" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="CO116" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CR116" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CS116" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CT116" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CW116" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="CX116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CY116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DA116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DB116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DC116" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DD116" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DE116" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DF116" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG116" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DH116" t="inlineStr">
+        <is>
+          <t>0.25984453468576302</t>
+        </is>
+      </c>
+      <c r="DI116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DJ116" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DK116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DL116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DM116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DN116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DO116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DP116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DQ116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DR116" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DS116" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DT116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DU116" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DV116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DW116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DX116" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DY116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DZ116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EA116" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EB116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EC116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="ED116" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EE116" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EF116" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EG116" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EH116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EI116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EJ116" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EK116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EL116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EM116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EN116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EO116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EP116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EQ116" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="ER116" t="inlineStr">
+        <is>
+          <t>2.9880391447749202E-2</t>
+        </is>
+      </c>
+      <c r="ES116" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="ET116" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="EU116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EV116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EW116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EX116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EY116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EZ116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FA116" t="inlineStr">
+        <is>
+          <t>0.46598629628586902</t>
+        </is>
+      </c>
+      <c r="FB116" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="FD116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FE116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FF116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FG116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="FH116" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="FI116" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="FJ116" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FK116" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="FL116" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="FM116" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="FN116" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="FO116" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FP116" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="FQ116" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="FR116" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="FS116" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FT116" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="FU116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FV116" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>221103_1043</t>
+        </is>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>subjects</t>
+        </is>
+      </c>
+      <c r="D117">
+        <v>29</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>0.39599660499766298</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA117" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AB117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK117" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AL117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM117" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AN117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BS117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BV117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CB117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CF117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CH117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CI117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CL117" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="CO117" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CR117" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CS117" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CT117" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CW117" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="CX117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CY117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CZ117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DA117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DB117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DC117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DD117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DE117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DG117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH117" t="inlineStr">
+        <is>
+          <t>0.59680287893712702</t>
+        </is>
+      </c>
+      <c r="DI117" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DJ117" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DK117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DL117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DM117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DN117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DO117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DP117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DQ117" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DR117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DS117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DT117" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DU117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DV117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DW117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DX117" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DY117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DZ117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EA117" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EB117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EC117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="ED117" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EE117" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EF117" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EG117" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EH117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EI117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EJ117" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EK117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EL117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EM117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EN117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EO117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EP117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EQ117" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="ER117" t="inlineStr">
+        <is>
+          <t>0.15339782422101</t>
+        </is>
+      </c>
+      <c r="ES117" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="ET117" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="EU117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EV117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EW117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EX117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EY117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EZ117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FA117" t="inlineStr">
+        <is>
+          <t>0.56946472011947302</t>
+        </is>
+      </c>
+      <c r="FB117" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="FD117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FE117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FF117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FG117" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="FH117" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="FI117" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="FJ117" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="FK117" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="FL117" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="FM117" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="FN117" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="FO117" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="FP117" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="FQ117" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="FR117" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="FS117" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="FT117" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="FU117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FV117" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>221103_1043</t>
+        </is>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>subjects</t>
+        </is>
+      </c>
+      <c r="D118">
+        <v>29</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>0.55874141215288098</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Z118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AC118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK118" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AL118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BS118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BV118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CB118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CF118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CH118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CI118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CL118" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="CO118" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CR118" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CS118" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CT118" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CW118" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="CX118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CY118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CZ118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DA118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DB118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DC118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DD118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DE118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DG118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH118" t="inlineStr">
+        <is>
+          <t>0.24167539050880599</t>
+        </is>
+      </c>
+      <c r="DI118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DJ118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DK118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DL118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DM118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DN118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DO118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DP118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DQ118" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DR118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DS118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DT118" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DU118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DV118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DW118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DX118" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DY118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DZ118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EA118" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EB118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EC118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="ED118" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EE118" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EF118" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EG118" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EH118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EI118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EJ118" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EK118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EL118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EM118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EN118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EO118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EP118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EQ118" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="ER118" t="inlineStr">
+        <is>
+          <t>0.216197873566392</t>
+        </is>
+      </c>
+      <c r="ES118" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="ET118" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="EU118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EV118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EW118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EX118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EY118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EZ118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FA118" t="inlineStr">
+        <is>
+          <t>0.74502841138515097</t>
+        </is>
+      </c>
+      <c r="FB118" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="FC118" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="FD118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FE118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FF118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FG118" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FH118" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="FI118" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="FJ118" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="FK118" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="FL118" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="FM118" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="FN118" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="FO118" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="FP118" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="FQ118" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="FR118" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="FS118" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="FT118" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="FU118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FV118" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>221103_1043</t>
+        </is>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>subjects</t>
+        </is>
+      </c>
+      <c r="D119">
+        <v>29</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>0.68197938412520098</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Z119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB119" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AC119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK119" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AL119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BS119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BV119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CB119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CF119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CH119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CI119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CL119" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="CO119" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CR119" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CS119" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CT119" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CW119" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="CX119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CY119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CZ119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DA119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DB119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DC119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DD119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DE119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DG119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH119" t="inlineStr">
+        <is>
+          <t>0.110139217278985</t>
+        </is>
+      </c>
+      <c r="DI119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DJ119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DK119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DL119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DM119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DN119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DO119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DP119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DQ119" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DR119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DS119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DT119" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DU119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DV119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DW119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DX119" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DY119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DZ119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EA119" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EB119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EC119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="ED119" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EE119" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EF119" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EG119" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EH119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EI119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EJ119" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EK119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EL119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EM119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EN119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EO119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EP119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EQ119" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="ER119" t="inlineStr">
+        <is>
+          <t>0.69368773451712296</t>
+        </is>
+      </c>
+      <c r="ES119" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="ET119" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="EU119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EV119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EW119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EX119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EY119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EZ119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FA119" t="inlineStr">
+        <is>
+          <t>0.82361929343250595</t>
+        </is>
+      </c>
+      <c r="FB119" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="FC119" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="FD119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FE119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FF119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FG119" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="FH119" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="FI119" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="FJ119" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="FK119" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="FL119" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="FM119" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="FN119" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="FO119" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FP119" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="FQ119" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="FR119" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="FS119" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="FT119" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="FU119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FV119" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>221103_1043</t>
+        </is>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>subjects</t>
+        </is>
+      </c>
+      <c r="D120">
+        <v>29</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>0.71446737517345105</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Z120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB120" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AC120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK120" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AL120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BS120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BV120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CB120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CF120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CH120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CI120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CL120" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="CO120" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CR120" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CS120" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CT120" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CW120" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="CX120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CY120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CZ120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DA120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DB120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DC120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DD120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DF120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DG120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DH120" t="inlineStr">
+        <is>
+          <t>0.11114722542052501</t>
+        </is>
+      </c>
+      <c r="DI120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DJ120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DK120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DL120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DM120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DN120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DO120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DP120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DQ120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DR120" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DS120" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DT120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DU120" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DV120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DW120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DX120" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DY120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DZ120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EA120" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EB120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EC120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="ED120" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EE120" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EF120" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EG120" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EH120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EI120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EJ120" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EK120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EL120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EM120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EN120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EO120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EP120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EQ120" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="ER120" t="inlineStr">
+        <is>
+          <t>7.3938553255954095E-2</t>
+        </is>
+      </c>
+      <c r="ES120" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="ET120" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="EU120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EV120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EW120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EX120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EY120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EZ120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FA120" t="inlineStr">
+        <is>
+          <t>0.83168167659625503</t>
+        </is>
+      </c>
+      <c r="FB120" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="FC120" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="FD120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FE120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FF120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FG120" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FH120" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="FI120" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="FJ120" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="FK120" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="FL120" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="FM120" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="FN120" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="FO120" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="FP120" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="FQ120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FR120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FS120" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="FT120" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="FU120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FV120" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>221103_1043</t>
+        </is>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>subjects</t>
+        </is>
+      </c>
+      <c r="D121">
+        <v>29</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>0.62960568868071098</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Z121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB121" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AC121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK121" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AL121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BS121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BV121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CB121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CF121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CH121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CI121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CL121" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="CO121" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CR121" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CS121" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CT121" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CW121" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="CX121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CY121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CZ121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DA121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DB121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DC121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DD121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DE121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DG121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH121" t="inlineStr">
+        <is>
+          <t>0.206650001558778</t>
+        </is>
+      </c>
+      <c r="DI121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DJ121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DK121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DL121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DM121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DN121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DO121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DP121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DQ121" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DR121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DS121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DT121" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DU121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DV121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DW121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DX121" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DY121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DZ121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EA121" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EB121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EC121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="ED121" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EE121" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EF121" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EG121" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EH121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EI121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EJ121" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EK121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EL121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EM121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EN121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EO121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EP121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EQ121" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="ER121" t="inlineStr">
+        <is>
+          <t>1.5974501155304999E-3</t>
+        </is>
+      </c>
+      <c r="ES121" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="ET121" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="EU121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EV121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EW121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EX121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EY121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EZ121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FA121" t="inlineStr">
+        <is>
+          <t>0.60863964427664896</t>
+        </is>
+      </c>
+      <c r="FB121" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="FC121" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="FD121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FE121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FF121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FG121" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="FH121" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="FI121" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="FJ121" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="FK121" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="FL121" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="FM121" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="FN121" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="FO121" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FP121" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="FQ121" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="FR121" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="FS121" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="FT121" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FU121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FV121" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
